--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icosl-Ctla4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icosl-Ctla4.xlsx
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.399219</v>
+        <v>0.60844</v>
       </c>
       <c r="H2">
-        <v>1.197657</v>
+        <v>1.82532</v>
       </c>
       <c r="I2">
-        <v>0.007371893048229459</v>
+        <v>0.01418783042133501</v>
       </c>
       <c r="J2">
-        <v>0.00737189304822946</v>
+        <v>0.01418783042133501</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.06532700000000001</v>
+        <v>0.1258873333333333</v>
       </c>
       <c r="N2">
-        <v>0.195981</v>
+        <v>0.377662</v>
       </c>
       <c r="O2">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="P2">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="Q2">
-        <v>0.026079779613</v>
+        <v>0.07659488909333333</v>
       </c>
       <c r="R2">
-        <v>0.234718016517</v>
+        <v>0.6893540018400001</v>
       </c>
       <c r="S2">
-        <v>0.002357656968664777</v>
+        <v>0.01407908584704416</v>
       </c>
       <c r="T2">
-        <v>0.002357656968664778</v>
+        <v>0.01407908584704416</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.399219</v>
+        <v>0.60844</v>
       </c>
       <c r="H3">
-        <v>1.197657</v>
+        <v>1.82532</v>
       </c>
       <c r="I3">
-        <v>0.007371893048229459</v>
+        <v>0.01418783042133501</v>
       </c>
       <c r="J3">
-        <v>0.00737189304822946</v>
+        <v>0.01418783042133501</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1389366666666667</v>
+        <v>0.0009723333333333333</v>
       </c>
       <c r="N3">
-        <v>0.41681</v>
+        <v>0.002917</v>
       </c>
       <c r="O3">
-        <v>0.680182966133641</v>
+        <v>0.007664637302636247</v>
       </c>
       <c r="P3">
-        <v>0.6801829661336409</v>
+        <v>0.007664637302636246</v>
       </c>
       <c r="Q3">
-        <v>0.05546615713000001</v>
+        <v>0.0005916064933333333</v>
       </c>
       <c r="R3">
-        <v>0.49919541417</v>
+        <v>0.00532445844</v>
       </c>
       <c r="S3">
-        <v>0.005014236079564681</v>
+        <v>0.0001087445742908416</v>
       </c>
       <c r="T3">
-        <v>0.005014236079564681</v>
+        <v>0.0001087445742908416</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -673,40 +673,40 @@
         <v>3.099606</v>
       </c>
       <c r="I4">
-        <v>0.0190788881321199</v>
+        <v>0.02409258886165303</v>
       </c>
       <c r="J4">
-        <v>0.0190788881321199</v>
+        <v>0.02409258886165303</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.06532700000000001</v>
+        <v>0.1258873333333333</v>
       </c>
       <c r="N4">
-        <v>0.195981</v>
+        <v>0.377662</v>
       </c>
       <c r="O4">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="P4">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="Q4">
-        <v>0.06749598705400001</v>
+        <v>0.1300670445746666</v>
       </c>
       <c r="R4">
-        <v>0.607463883486</v>
+        <v>1.170603401172</v>
       </c>
       <c r="S4">
-        <v>0.006101753411882664</v>
+        <v>0.02390792790634693</v>
       </c>
       <c r="T4">
-        <v>0.006101753411882664</v>
+        <v>0.02390792790634692</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>3.099606</v>
       </c>
       <c r="I5">
-        <v>0.0190788881321199</v>
+        <v>0.02409258886165303</v>
       </c>
       <c r="J5">
-        <v>0.0190788881321199</v>
+        <v>0.02409258886165303</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1389366666666667</v>
+        <v>0.0009723333333333333</v>
       </c>
       <c r="N5">
-        <v>0.41681</v>
+        <v>0.002917</v>
       </c>
       <c r="O5">
-        <v>0.680182966133641</v>
+        <v>0.007664637302636247</v>
       </c>
       <c r="P5">
-        <v>0.6801829661336409</v>
+        <v>0.007664637302636246</v>
       </c>
       <c r="Q5">
-        <v>0.1435496418733333</v>
+        <v>0.001004616744666666</v>
       </c>
       <c r="R5">
-        <v>1.29194677686</v>
+        <v>0.009041550701999999</v>
       </c>
       <c r="S5">
-        <v>0.01297713472023723</v>
+        <v>0.0001846609553061044</v>
       </c>
       <c r="T5">
-        <v>0.01297713472023723</v>
+        <v>0.0001846609553061043</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.607736666666668</v>
+        <v>6.042074333333333</v>
       </c>
       <c r="H6">
-        <v>28.82321</v>
+        <v>18.126223</v>
       </c>
       <c r="I6">
-        <v>0.1774144195096408</v>
+        <v>0.1408913385616233</v>
       </c>
       <c r="J6">
-        <v>0.1774144195096408</v>
+        <v>0.1408913385616233</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.06532700000000001</v>
+        <v>0.1258873333333333</v>
       </c>
       <c r="N6">
-        <v>0.195981</v>
+        <v>0.377662</v>
       </c>
       <c r="O6">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="P6">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="Q6">
-        <v>0.6276446132233335</v>
+        <v>0.760620625625111</v>
       </c>
       <c r="R6">
-        <v>5.648801519010001</v>
+        <v>6.845585630626</v>
       </c>
       <c r="S6">
-        <v>0.05674015341269521</v>
+        <v>0.1398114575524655</v>
       </c>
       <c r="T6">
-        <v>0.05674015341269521</v>
+        <v>0.1398114575524655</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.607736666666668</v>
+        <v>6.042074333333333</v>
       </c>
       <c r="H7">
-        <v>28.82321</v>
+        <v>18.126223</v>
       </c>
       <c r="I7">
-        <v>0.1774144195096408</v>
+        <v>0.1408913385616233</v>
       </c>
       <c r="J7">
-        <v>0.1774144195096408</v>
+        <v>0.1408913385616233</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1389366666666667</v>
+        <v>0.0009723333333333333</v>
       </c>
       <c r="N7">
-        <v>0.41681</v>
+        <v>0.002917</v>
       </c>
       <c r="O7">
-        <v>0.680182966133641</v>
+        <v>0.007664637302636247</v>
       </c>
       <c r="P7">
-        <v>0.6801829661336409</v>
+        <v>0.007664637302636246</v>
       </c>
       <c r="Q7">
-        <v>1.334866906677778</v>
+        <v>0.005874910276777777</v>
       </c>
       <c r="R7">
-        <v>12.0138021601</v>
+        <v>0.052874192491</v>
       </c>
       <c r="S7">
-        <v>0.1206742660969456</v>
+        <v>0.001079881009157771</v>
       </c>
       <c r="T7">
-        <v>0.1206742660969456</v>
+        <v>0.001079881009157771</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5795316666666666</v>
+        <v>0.4072233333333333</v>
       </c>
       <c r="H8">
-        <v>1.738595</v>
+        <v>1.22167</v>
       </c>
       <c r="I8">
-        <v>0.0107015083568889</v>
+        <v>0.009495785281940885</v>
       </c>
       <c r="J8">
-        <v>0.0107015083568889</v>
+        <v>0.009495785281940885</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.06532700000000001</v>
+        <v>0.1258873333333333</v>
       </c>
       <c r="N8">
-        <v>0.195981</v>
+        <v>0.377662</v>
       </c>
       <c r="O8">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="P8">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="Q8">
-        <v>0.03785906518833333</v>
+        <v>0.05126425950444444</v>
       </c>
       <c r="R8">
-        <v>0.340731586695</v>
+        <v>0.46137833554</v>
       </c>
       <c r="S8">
-        <v>0.003422524660596263</v>
+        <v>0.009423003531851097</v>
       </c>
       <c r="T8">
-        <v>0.003422524660596263</v>
+        <v>0.009423003531851097</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5795316666666666</v>
+        <v>0.4072233333333333</v>
       </c>
       <c r="H9">
-        <v>1.738595</v>
+        <v>1.22167</v>
       </c>
       <c r="I9">
-        <v>0.0107015083568889</v>
+        <v>0.009495785281940885</v>
       </c>
       <c r="J9">
-        <v>0.0107015083568889</v>
+        <v>0.009495785281940885</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1389366666666667</v>
+        <v>0.0009723333333333333</v>
       </c>
       <c r="N9">
-        <v>0.41681</v>
+        <v>0.002917</v>
       </c>
       <c r="O9">
-        <v>0.680182966133641</v>
+        <v>0.007664637302636247</v>
       </c>
       <c r="P9">
-        <v>0.6801829661336409</v>
+        <v>0.007664637302636246</v>
       </c>
       <c r="Q9">
-        <v>0.08051819799444444</v>
+        <v>0.0003959568211111111</v>
       </c>
       <c r="R9">
-        <v>0.7246637819499999</v>
+        <v>0.00356361139</v>
       </c>
       <c r="S9">
-        <v>0.007278983696292642</v>
+        <v>7.278175008978836E-05</v>
       </c>
       <c r="T9">
-        <v>0.007278983696292641</v>
+        <v>7.278175008978836E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.01210333333333</v>
+        <v>31.00247266666667</v>
       </c>
       <c r="H10">
-        <v>75.03631</v>
+        <v>93.007418</v>
       </c>
       <c r="I10">
-        <v>0.4618681743218556</v>
+        <v>0.72292719879814</v>
       </c>
       <c r="J10">
-        <v>0.4618681743218557</v>
+        <v>0.72292719879814</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.06532700000000001</v>
+        <v>0.1258873333333333</v>
       </c>
       <c r="N10">
-        <v>0.195981</v>
+        <v>0.377662</v>
       </c>
       <c r="O10">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="P10">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="Q10">
-        <v>1.633965674456667</v>
+        <v>3.902818610746222</v>
       </c>
       <c r="R10">
-        <v>14.70569107011</v>
+        <v>35.125367496716</v>
       </c>
       <c r="S10">
-        <v>0.1477133095488863</v>
+        <v>0.7173862240231416</v>
       </c>
       <c r="T10">
-        <v>0.1477133095488863</v>
+        <v>0.7173862240231416</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.01210333333333</v>
+        <v>31.00247266666667</v>
       </c>
       <c r="H11">
-        <v>75.03631</v>
+        <v>93.007418</v>
       </c>
       <c r="I11">
-        <v>0.4618681743218556</v>
+        <v>0.72292719879814</v>
       </c>
       <c r="J11">
-        <v>0.4618681743218557</v>
+        <v>0.72292719879814</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.1389366666666667</v>
+        <v>0.0009723333333333333</v>
       </c>
       <c r="N11">
-        <v>0.41681</v>
+        <v>0.002917</v>
       </c>
       <c r="O11">
-        <v>0.680182966133641</v>
+        <v>0.007664637302636247</v>
       </c>
       <c r="P11">
-        <v>0.6801829661336409</v>
+        <v>0.007664637302636246</v>
       </c>
       <c r="Q11">
-        <v>3.475098263455556</v>
+        <v>0.03014473758955555</v>
       </c>
       <c r="R11">
-        <v>31.2758843711</v>
+        <v>0.271302638306</v>
       </c>
       <c r="S11">
-        <v>0.3141548647729693</v>
+        <v>0.005540974774998554</v>
       </c>
       <c r="T11">
-        <v>0.3141548647729693</v>
+        <v>0.005540974774998554</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.52241133333333</v>
+        <v>3.791227666666666</v>
       </c>
       <c r="H12">
-        <v>52.56723400000001</v>
+        <v>11.373683</v>
       </c>
       <c r="I12">
-        <v>0.3235651166312652</v>
+        <v>0.08840525807530777</v>
       </c>
       <c r="J12">
-        <v>0.3235651166312653</v>
+        <v>0.08840525807530777</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.06532700000000001</v>
+        <v>0.1258873333333333</v>
       </c>
       <c r="N12">
-        <v>0.195981</v>
+        <v>0.377662</v>
       </c>
       <c r="O12">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="P12">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="Q12">
-        <v>1.144686565172667</v>
+        <v>0.4772675410162222</v>
       </c>
       <c r="R12">
-        <v>10.302179086554</v>
+        <v>4.295407869146</v>
       </c>
       <c r="S12">
-        <v>0.1034816358636338</v>
+        <v>0.08772766383651459</v>
       </c>
       <c r="T12">
-        <v>0.1034816358636338</v>
+        <v>0.08772766383651459</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.52241133333333</v>
+        <v>3.791227666666666</v>
       </c>
       <c r="H13">
-        <v>52.56723400000001</v>
+        <v>11.373683</v>
       </c>
       <c r="I13">
-        <v>0.3235651166312652</v>
+        <v>0.08840525807530777</v>
       </c>
       <c r="J13">
-        <v>0.3235651166312653</v>
+        <v>0.08840525807530777</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.1389366666666667</v>
+        <v>0.0009723333333333333</v>
       </c>
       <c r="N13">
-        <v>0.41681</v>
+        <v>0.002917</v>
       </c>
       <c r="O13">
-        <v>0.680182966133641</v>
+        <v>0.007664637302636247</v>
       </c>
       <c r="P13">
-        <v>0.6801829661336409</v>
+        <v>0.007664637302636246</v>
       </c>
       <c r="Q13">
-        <v>2.434505422615556</v>
+        <v>0.003686337034555555</v>
       </c>
       <c r="R13">
-        <v>21.91054880354</v>
+        <v>0.033177033311</v>
       </c>
       <c r="S13">
-        <v>0.2200834807676315</v>
+        <v>0.0006775942387931882</v>
       </c>
       <c r="T13">
-        <v>0.2200834807676315</v>
+        <v>0.0006775942387931882</v>
       </c>
     </row>
   </sheetData>
